--- a/Project2_Dijkstra/info/Timetable.xlsx
+++ b/Project2_Dijkstra/info/Timetable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFDAD81-72C5-4FE4-B98F-E23467A26E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F93A0DC-A851-42D8-BD8A-E8BF54311578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="Line 8" sheetId="8" r:id="rId8"/>
     <sheet name="Line 9" sheetId="9" r:id="rId9"/>
     <sheet name="Line 10" sheetId="24" r:id="rId10"/>
-    <sheet name="Line 10 往航中路" sheetId="22" r:id="rId11"/>
-    <sheet name="Line 10 往虹桥火车站" sheetId="10" r:id="rId12"/>
-    <sheet name="Line 11" sheetId="25" r:id="rId13"/>
-    <sheet name="Line 11 往嘉定北" sheetId="11" r:id="rId14"/>
-    <sheet name="Line 11 往花桥" sheetId="23" r:id="rId15"/>
-    <sheet name="Line 12" sheetId="12" r:id="rId16"/>
-    <sheet name="Line 13" sheetId="13" r:id="rId17"/>
-    <sheet name="Line 16" sheetId="14" r:id="rId18"/>
-    <sheet name="Line 17" sheetId="15" r:id="rId19"/>
+    <sheet name="Line 11" sheetId="25" r:id="rId11"/>
+    <sheet name="Line 12" sheetId="12" r:id="rId12"/>
+    <sheet name="Line 13" sheetId="13" r:id="rId13"/>
+    <sheet name="Line 10 往航中路" sheetId="22" r:id="rId14"/>
+    <sheet name="Line 10 往虹桥火车站" sheetId="10" r:id="rId15"/>
+    <sheet name="Line 16" sheetId="14" r:id="rId16"/>
+    <sheet name="Line 17" sheetId="15" r:id="rId17"/>
+    <sheet name="Line 11 往嘉定北" sheetId="11" r:id="rId18"/>
+    <sheet name="Line 11 往花桥" sheetId="23" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
@@ -2038,7 +2038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
@@ -2288,7 +2288,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A1:B25"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2500,6 +2500,713 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C4CEEC-9D11-4723-BEC4-BF528B2ED18E}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.94236111111111109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94930555555555562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.95277777777777783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="22.5">
+      <c r="A10" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95624999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="47" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="47" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.97083333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.97291666666666676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.97361111111111109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.9770833333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.97916666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.98055555555555562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.9819444444444444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.98402777777777783</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.9902777777777777</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="47" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.99305555555555547</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="31" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.94027777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94305555555555554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.94652777777777775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.94861111111111107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.95624999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.95763888888888893</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="22.5">
+      <c r="A15" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.9590277777777777</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.96180555555555547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.96319444444444446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.96736111111111101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="21">
+        <v>0.97083333333333333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="B22" s="19">
+        <v>0.97291666666666676</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="B23" s="21">
+        <v>0.97430555555555554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="B24" s="19">
+        <v>0.97638888888888886</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="39" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" s="21">
+        <v>0.9784722222222223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="B26" s="19">
+        <v>0.97986111111111107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="39" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="21">
+        <v>0.98125000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="39" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="19">
+        <v>0.98263888888888884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="39" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0.98472222222222217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="39" t="s">
+        <v>315</v>
+      </c>
+      <c r="B30" s="19">
+        <v>0.98611111111111116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="39" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" s="21">
+        <v>0.98819444444444438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="B32" s="19">
+        <v>0.98958333333333337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" s="21">
+        <v>0.99097222222222225</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E60:E90">
+    <sortCondition ref="E90"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="21">
+        <v>0.93888888888888899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="19">
+        <v>0.94166666666666676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" s="21">
+        <v>0.94374999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.94513888888888886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B7" s="21">
+        <v>0.9472222222222223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="19">
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="21">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.95347222222222217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="B11" s="21">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.95624999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="B13" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="19">
+        <v>0.9590277777777777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="B15" s="21">
+        <v>0.96111111111111114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="B16" s="19">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="21">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="19">
+        <v>0.96597222222222223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="24">
+      <c r="A19" s="40" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" s="21">
+        <v>0.96736111111111101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B20" s="19">
+        <v>0.96944444444444444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F5D246-9742-41FC-96D7-01A75776877D}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2555,7 +3262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2623,255 +3330,268 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C4CEEC-9D11-4723-BEC4-BF528B2ED18E}">
-  <dimension ref="A1:B29"/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A1:B29"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>287</v>
+      <c r="A1" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="19">
+      <c r="A2" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="33">
         <v>0.9375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.94027777777777777</v>
+      <c r="A3" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.93958333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="47" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="19">
-        <v>0.94236111111111109</v>
+      <c r="A4" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.94374999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.9506944444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.95416666666666661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.95972222222222225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="33">
+        <v>0.96458333333333324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.96875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0.97152777777777777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="B5" s="21">
-        <v>0.94444444444444453</v>
+      <c r="B12" s="33">
+        <v>0.98055555555555562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.98333333333333339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="33">
+        <v>0.9868055555555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:F37">
+    <sortCondition ref="F25"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="42" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="44" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="33">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="B3" s="16">
+        <v>0.93958333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="33">
+        <v>0.94097222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.94305555555555554</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.94652777777777775</v>
+      <c r="A6" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" s="33">
+        <v>0.94513888888888886</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A7" s="44" t="s">
+        <v>337</v>
+      </c>
+      <c r="B7" s="16">
+        <v>0.9472222222222223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="33">
         <v>0.94930555555555562</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" s="21">
-        <v>0.95277777777777783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="22.5">
-      <c r="A10" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.95624999999999993</v>
+      <c r="A9" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.95208333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="B10" s="33">
+        <v>0.95416666666666661</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="B11" s="21">
-        <v>0.95833333333333337</v>
+      <c r="A11" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.95694444444444438</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="B12" s="19">
+      <c r="A12" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="33">
         <v>0.95972222222222225</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.96111111111111114</v>
+      <c r="A13" s="45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.96319444444444446</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="47" t="s">
-        <v>236</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="21">
+      <c r="A14" s="45" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" s="33">
         <v>0.96527777777777779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.96666666666666667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.96944444444444444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.97083333333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0.97291666666666676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="47" t="s">
-        <v>238</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0.97361111111111109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0.97569444444444453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="B22" s="19">
-        <v>0.9770833333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.97916666666666663</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0.98055555555555562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="B25" s="21">
-        <v>0.9819444444444444</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0.98402777777777783</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.9868055555555556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.9902777777777777</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="21">
-        <v>0.99305555555555547</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -2930,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2FD463-8994-4E99-B1A2-EC39567131AC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -3015,726 +3735,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.94027777777777777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="19">
-        <v>0.94166666666666676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.94305555555555554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.94513888888888886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="21">
-        <v>0.94652777777777775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.94861111111111107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" s="21">
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="B11" s="21">
-        <v>0.95347222222222217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.95624999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.95763888888888893</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="22.5">
-      <c r="A15" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0.9590277777777777</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.96180555555555547</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.96319444444444446</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.96527777777777779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0.96736111111111101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0.96944444444444444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="21">
-        <v>0.97083333333333333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="19">
-        <v>0.97291666666666676</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="39" t="s">
-        <v>308</v>
-      </c>
-      <c r="B23" s="21">
-        <v>0.97430555555555554</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="B24" s="19">
-        <v>0.97638888888888886</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="39" t="s">
-        <v>310</v>
-      </c>
-      <c r="B25" s="21">
-        <v>0.9784722222222223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="B26" s="19">
-        <v>0.97986111111111107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="B27" s="21">
-        <v>0.98125000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="39" t="s">
-        <v>313</v>
-      </c>
-      <c r="B28" s="19">
-        <v>0.98263888888888884</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="B29" s="21">
-        <v>0.98472222222222217</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="39" t="s">
-        <v>315</v>
-      </c>
-      <c r="B30" s="19">
-        <v>0.98611111111111116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="39" t="s">
-        <v>316</v>
-      </c>
-      <c r="B31" s="21">
-        <v>0.98819444444444438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="B32" s="19">
-        <v>0.98958333333333337</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="39" t="s">
-        <v>318</v>
-      </c>
-      <c r="B33" s="21">
-        <v>0.99097222222222225</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E60:E90">
-    <sortCondition ref="E90"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="13.5" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="34" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
-        <v>271</v>
-      </c>
-      <c r="B3" s="21">
-        <v>0.93888888888888899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="19">
-        <v>0.94166666666666676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="B5" s="21">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="19">
-        <v>0.94513888888888886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="21">
-        <v>0.9472222222222223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.95000000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" s="21">
-        <v>0.95138888888888884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="40" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="19">
-        <v>0.95347222222222217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="B11" s="21">
-        <v>0.95486111111111116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="19">
-        <v>0.95624999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="B13" s="21">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="B14" s="19">
-        <v>0.9590277777777777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="B15" s="21">
-        <v>0.96111111111111114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="40" t="s">
-        <v>325</v>
-      </c>
-      <c r="B16" s="19">
-        <v>0.96250000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="40" t="s">
-        <v>326</v>
-      </c>
-      <c r="B17" s="21">
-        <v>0.96458333333333324</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="40" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" s="19">
-        <v>0.96597222222222223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="24">
-      <c r="A19" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="B19" s="21">
-        <v>0.96736111111111101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="40" t="s">
-        <v>329</v>
-      </c>
-      <c r="B20" s="19">
-        <v>0.96944444444444444</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="33">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
-        <v>277</v>
-      </c>
-      <c r="B3" s="16">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0.94374999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0.9506944444444444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="33">
-        <v>0.95416666666666661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0.95972222222222225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0.96458333333333324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0.96875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="33">
-        <v>0.97152777777777777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0.97569444444444453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="35" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="33">
-        <v>0.98055555555555562</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.98333333333333339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="41" t="s">
-        <v>331</v>
-      </c>
-      <c r="B14" s="33">
-        <v>0.9868055555555556</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B25:F37">
-    <sortCondition ref="F25"/>
-  </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="44" t="s">
-        <v>332</v>
-      </c>
-      <c r="B2" s="33">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="44" t="s">
-        <v>333</v>
-      </c>
-      <c r="B3" s="16">
-        <v>0.93958333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="B4" s="33">
-        <v>0.94097222222222221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="B5" s="16">
-        <v>0.94305555555555554</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="B6" s="33">
-        <v>0.94513888888888886</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="B7" s="16">
-        <v>0.9472222222222223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="B8" s="33">
-        <v>0.94930555555555562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="B9" s="16">
-        <v>0.95208333333333339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="B10" s="33">
-        <v>0.95416666666666661</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="B11" s="16">
-        <v>0.95694444444444438</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" s="33">
-        <v>0.95972222222222225</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="B13" s="16">
-        <v>0.96319444444444446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="33">
-        <v>0.96527777777777779</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Project2_Dijkstra/info/Timetable.xlsx
+++ b/Project2_Dijkstra/info/Timetable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F93A0DC-A851-42D8-BD8A-E8BF54311578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A873D0-674F-4E41-8C3D-376F43C50E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11445" yWindow="1365" windowWidth="17160" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="351">
   <si>
     <t>莘庄</t>
   </si>
@@ -197,9 +197,6 @@
   </si>
   <si>
     <t>淞虹路</t>
-  </si>
-  <si>
-    <t>虹桥2号航站楼 </t>
   </si>
   <si>
     <t>虹桥火车站</t>
@@ -1347,6 +1344,14 @@
   </si>
   <si>
     <t>富锦路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹桥火车站</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹桥2号航站楼</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2046,10 +2051,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>286</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2270,7 +2275,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B29" s="21">
         <v>0.98402777777777783</v>
@@ -2295,15 +2300,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="19">
         <v>0.93402777777777779</v>
@@ -2311,7 +2316,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B3" s="21">
         <v>0.93472222222222223</v>
@@ -2319,7 +2324,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="46" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="19">
         <v>0.93611111111111101</v>
@@ -2327,7 +2332,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="46" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="21">
         <v>0.9375</v>
@@ -2335,7 +2340,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B6" s="19">
         <v>0.93888888888888899</v>
@@ -2343,7 +2348,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="21">
         <v>0.94027777777777777</v>
@@ -2351,7 +2356,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="46" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" s="19">
         <v>0.94166666666666676</v>
@@ -2359,7 +2364,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B9" s="21">
         <v>0.94305555555555554</v>
@@ -2367,7 +2372,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="19">
         <v>0.94444444444444453</v>
@@ -2375,7 +2380,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11" s="21">
         <v>0.9458333333333333</v>
@@ -2383,7 +2388,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B12" s="19">
         <v>0.9472222222222223</v>
@@ -2391,7 +2396,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" s="21">
         <v>0.94861111111111107</v>
@@ -2407,7 +2412,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" s="21">
         <v>0.95138888888888884</v>
@@ -2415,7 +2420,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="19">
         <v>0.95347222222222217</v>
@@ -2423,7 +2428,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="21">
         <v>0.95486111111111116</v>
@@ -2439,7 +2444,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="21">
         <v>0.95833333333333337</v>
@@ -2447,7 +2452,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="19">
         <v>0.95972222222222225</v>
@@ -2455,7 +2460,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="21">
         <v>0.96111111111111114</v>
@@ -2463,7 +2468,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="19">
         <v>0.96250000000000002</v>
@@ -2471,7 +2476,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B23" s="21">
         <v>0.96388888888888891</v>
@@ -2479,7 +2484,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B24" s="19">
         <v>0.96527777777777779</v>
@@ -2487,7 +2492,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B25" s="21">
         <v>0.96666666666666667</v>
@@ -2503,7 +2508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C4CEEC-9D11-4723-BEC4-BF528B2ED18E}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
@@ -2511,15 +2516,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -2527,7 +2532,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B3" s="21">
         <v>0.94027777777777777</v>
@@ -2535,7 +2540,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="47" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B4" s="19">
         <v>0.94236111111111109</v>
@@ -2543,7 +2548,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="47" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="21">
         <v>0.94444444444444453</v>
@@ -2551,7 +2556,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B6" s="19">
         <v>0.94652777777777775</v>
@@ -2559,7 +2564,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="21">
         <v>0.94930555555555562</v>
@@ -2567,7 +2572,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="19">
         <v>0.95138888888888884</v>
@@ -2575,7 +2580,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="47" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="21">
         <v>0.95277777777777783</v>
@@ -2583,7 +2588,7 @@
     </row>
     <row r="10" spans="1:2" ht="22.5">
       <c r="A10" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B10" s="19">
         <v>0.95624999999999993</v>
@@ -2591,7 +2596,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="47" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B11" s="21">
         <v>0.95833333333333337</v>
@@ -2599,7 +2604,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="19">
         <v>0.95972222222222225</v>
@@ -2607,7 +2612,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="47" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B13" s="21">
         <v>0.96111111111111114</v>
@@ -2615,7 +2620,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="47" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B14" s="19">
         <v>0.96250000000000002</v>
@@ -2631,7 +2636,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="47" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B16" s="19">
         <v>0.96666666666666667</v>
@@ -2647,7 +2652,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B18" s="19">
         <v>0.97083333333333333</v>
@@ -2655,7 +2660,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="21">
         <v>0.97291666666666676</v>
@@ -2663,7 +2668,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="19">
         <v>0.97361111111111109</v>
@@ -2671,7 +2676,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B21" s="21">
         <v>0.97569444444444453</v>
@@ -2679,7 +2684,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B22" s="19">
         <v>0.9770833333333333</v>
@@ -2687,7 +2692,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B23" s="21">
         <v>0.97916666666666663</v>
@@ -2695,7 +2700,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B24" s="19">
         <v>0.98055555555555562</v>
@@ -2703,7 +2708,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B25" s="21">
         <v>0.9819444444444444</v>
@@ -2711,7 +2716,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="47" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="19">
         <v>0.98402777777777783</v>
@@ -2719,7 +2724,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27" s="21">
         <v>0.9868055555555556</v>
@@ -2727,7 +2732,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B28" s="19">
         <v>0.9902777777777777</v>
@@ -2735,7 +2740,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B29" s="21">
         <v>0.99305555555555547</v>
@@ -2759,15 +2764,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -2775,7 +2780,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" s="21">
         <v>0.94027777777777777</v>
@@ -2783,7 +2788,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B4" s="19">
         <v>0.94166666666666676</v>
@@ -2791,7 +2796,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="21">
         <v>0.94305555555555554</v>
@@ -2799,7 +2804,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="19">
         <v>0.94513888888888886</v>
@@ -2807,7 +2812,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B7" s="21">
         <v>0.94652777777777775</v>
@@ -2815,7 +2820,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="19">
         <v>0.94861111111111107</v>
@@ -2823,7 +2828,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" s="21">
         <v>0.95000000000000007</v>
@@ -2831,7 +2836,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="19">
         <v>0.95138888888888884</v>
@@ -2839,7 +2844,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" s="21">
         <v>0.95347222222222217</v>
@@ -2847,7 +2852,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="19">
         <v>0.95486111111111116</v>
@@ -2855,7 +2860,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="21">
         <v>0.95624999999999993</v>
@@ -2863,7 +2868,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="19">
         <v>0.95763888888888893</v>
@@ -2871,7 +2876,7 @@
     </row>
     <row r="15" spans="1:2" ht="22.5">
       <c r="A15" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B15" s="21">
         <v>0.9590277777777777</v>
@@ -2879,7 +2884,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B16" s="19">
         <v>0.96180555555555547</v>
@@ -2887,7 +2892,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="21">
         <v>0.96319444444444446</v>
@@ -2895,7 +2900,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B18" s="19">
         <v>0.96527777777777779</v>
@@ -2903,7 +2908,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B19" s="21">
         <v>0.96736111111111101</v>
@@ -2911,7 +2916,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B20" s="19">
         <v>0.96944444444444444</v>
@@ -2919,7 +2924,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B21" s="21">
         <v>0.97083333333333333</v>
@@ -2927,7 +2932,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="39" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" s="19">
         <v>0.97291666666666676</v>
@@ -2935,7 +2940,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B23" s="21">
         <v>0.97430555555555554</v>
@@ -2943,7 +2948,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="39" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B24" s="19">
         <v>0.97638888888888886</v>
@@ -2951,7 +2956,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B25" s="21">
         <v>0.9784722222222223</v>
@@ -2959,7 +2964,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="39" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B26" s="19">
         <v>0.97986111111111107</v>
@@ -2967,7 +2972,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B27" s="21">
         <v>0.98125000000000007</v>
@@ -2975,7 +2980,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B28" s="19">
         <v>0.98263888888888884</v>
@@ -2983,7 +2988,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="39" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B29" s="21">
         <v>0.98472222222222217</v>
@@ -2991,7 +2996,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B30" s="19">
         <v>0.98611111111111116</v>
@@ -2999,7 +3004,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="39" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" s="21">
         <v>0.98819444444444438</v>
@@ -3007,7 +3012,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="39" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B32" s="19">
         <v>0.98958333333333337</v>
@@ -3015,7 +3020,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B33" s="21">
         <v>0.99097222222222225</v>
@@ -3042,15 +3047,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="34" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -3058,7 +3063,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -3066,7 +3071,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B4" s="19">
         <v>0.94166666666666676</v>
@@ -3074,7 +3079,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B5" s="21">
         <v>0.94374999999999998</v>
@@ -3082,7 +3087,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="19">
         <v>0.94513888888888886</v>
@@ -3090,7 +3095,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="21">
         <v>0.9472222222222223</v>
@@ -3098,7 +3103,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="19">
         <v>0.95000000000000007</v>
@@ -3106,7 +3111,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="21">
         <v>0.95138888888888884</v>
@@ -3114,7 +3119,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="40" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B10" s="19">
         <v>0.95347222222222217</v>
@@ -3122,7 +3127,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B11" s="21">
         <v>0.95486111111111116</v>
@@ -3130,7 +3135,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B12" s="19">
         <v>0.95624999999999993</v>
@@ -3138,7 +3143,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B13" s="21">
         <v>0.95833333333333337</v>
@@ -3146,7 +3151,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="40" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B14" s="19">
         <v>0.9590277777777777</v>
@@ -3154,7 +3159,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B15" s="21">
         <v>0.96111111111111114</v>
@@ -3162,7 +3167,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B16" s="19">
         <v>0.96250000000000002</v>
@@ -3170,7 +3175,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B17" s="21">
         <v>0.96458333333333324</v>
@@ -3178,7 +3183,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="40" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" s="19">
         <v>0.96597222222222223</v>
@@ -3186,7 +3191,7 @@
     </row>
     <row r="19" spans="1:2" ht="24">
       <c r="A19" s="40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B19" s="21">
         <v>0.96736111111111101</v>
@@ -3194,7 +3199,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B20" s="19">
         <v>0.96944444444444444</v>
@@ -3218,15 +3223,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="21">
         <v>0.96666666666666667</v>
@@ -3234,7 +3239,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="19">
         <v>0.96944444444444444</v>
@@ -3242,7 +3247,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B4" s="21">
         <v>0.97083333333333333</v>
@@ -3250,7 +3255,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="46" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="19">
         <v>0.97222222222222221</v>
@@ -3274,15 +3279,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" s="21">
         <v>0.97013888888888899</v>
@@ -3290,7 +3295,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B3" s="19">
         <v>0.97222222222222221</v>
@@ -3298,7 +3303,7 @@
     </row>
     <row r="4" spans="1:2" ht="22.5">
       <c r="A4" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="21">
         <v>0.97361111111111109</v>
@@ -3306,7 +3311,7 @@
     </row>
     <row r="5" spans="1:2" ht="22.5">
       <c r="A5" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B5" s="19">
         <v>0.97569444444444453</v>
@@ -3314,7 +3319,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="21">
         <v>0.9770833333333333</v>
@@ -3342,15 +3347,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B2" s="33">
         <v>0.9375</v>
@@ -3358,7 +3363,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B3" s="16">
         <v>0.93958333333333333</v>
@@ -3366,7 +3371,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="33">
         <v>0.94374999999999998</v>
@@ -3374,7 +3379,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B5" s="16">
         <v>0.9506944444444444</v>
@@ -3382,7 +3387,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="33">
         <v>0.95416666666666661</v>
@@ -3390,7 +3395,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B7" s="16">
         <v>0.95972222222222225</v>
@@ -3398,7 +3403,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="33">
         <v>0.96458333333333324</v>
@@ -3406,7 +3411,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B9" s="16">
         <v>0.96875</v>
@@ -3414,7 +3419,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B10" s="33">
         <v>0.97152777777777777</v>
@@ -3422,7 +3427,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="18" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B11" s="16">
         <v>0.97569444444444453</v>
@@ -3430,7 +3435,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B12" s="33">
         <v>0.98055555555555562</v>
@@ -3438,7 +3443,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="41" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B13" s="16">
         <v>0.98333333333333339</v>
@@ -3446,7 +3451,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="41" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B14" s="33">
         <v>0.9868055555555556</v>
@@ -3474,15 +3479,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="44" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B2" s="33">
         <v>0.9375</v>
@@ -3490,7 +3495,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="44" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" s="16">
         <v>0.93958333333333333</v>
@@ -3498,7 +3503,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="44" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B4" s="33">
         <v>0.94097222222222221</v>
@@ -3506,7 +3511,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B5" s="16">
         <v>0.94305555555555554</v>
@@ -3514,7 +3519,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B6" s="33">
         <v>0.94513888888888886</v>
@@ -3522,7 +3527,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B7" s="16">
         <v>0.9472222222222223</v>
@@ -3530,7 +3535,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="44" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B8" s="33">
         <v>0.94930555555555562</v>
@@ -3538,7 +3543,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" s="16">
         <v>0.95208333333333339</v>
@@ -3546,7 +3551,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" s="33">
         <v>0.95416666666666661</v>
@@ -3554,7 +3559,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B11" s="16">
         <v>0.95694444444444438</v>
@@ -3562,7 +3567,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B12" s="33">
         <v>0.95972222222222225</v>
@@ -3570,7 +3575,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="45" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B13" s="16">
         <v>0.96319444444444446</v>
@@ -3578,7 +3583,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="45" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B14" s="33">
         <v>0.96527777777777779</v>
@@ -3603,15 +3608,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="21">
         <v>0.99305555555555547</v>
@@ -3619,7 +3624,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="19">
         <v>0.99444444444444446</v>
@@ -3627,7 +3632,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="21">
         <v>0.99722222222222223</v>
@@ -3635,7 +3640,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B5" s="19">
         <v>0.99930555555555556</v>
@@ -3662,15 +3667,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B2" s="21">
         <v>0.97222222222222221</v>
@@ -3678,7 +3683,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="47" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B3" s="21">
         <v>0.97499999999999998</v>
@@ -3686,7 +3691,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B4" s="19">
         <v>0.9784722222222223</v>
@@ -3694,7 +3699,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="21">
         <v>0.98055555555555562</v>
@@ -3702,7 +3707,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="19">
         <v>0.98263888888888884</v>
@@ -3710,7 +3715,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="47" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" s="21">
         <v>0.98472222222222217</v>
@@ -3718,7 +3723,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="19">
         <v>0.98749999999999993</v>
@@ -3726,7 +3731,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="47" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B9" s="21">
         <v>0.98888888888888893</v>
@@ -3735,6 +3740,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3742,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -3754,10 +3760,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" customHeight="1">
       <c r="A1" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="22.5">
@@ -4014,7 +4020,7 @@
     </row>
     <row r="29" spans="1:6" ht="22.5">
       <c r="A29" s="4" t="s">
-        <v>53</v>
+        <v>350</v>
       </c>
       <c r="B29" s="21">
         <v>0.99097222222222225</v>
@@ -4024,7 +4030,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>349</v>
       </c>
       <c r="B30" s="19">
         <v>0.99236111111111114</v>
@@ -4034,7 +4040,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31" s="21">
         <v>0.99375000000000002</v>
@@ -4048,7 +4054,7 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4064,10 +4070,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4080,7 +4086,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -4088,7 +4094,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="19">
         <v>0.94097222222222221</v>
@@ -4096,7 +4102,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="21">
         <v>0.94236111111111109</v>
@@ -4104,7 +4110,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="19">
         <v>0.94374999999999998</v>
@@ -4112,7 +4118,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="21">
         <v>0.94513888888888886</v>
@@ -4120,7 +4126,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="19">
         <v>0.9472222222222223</v>
@@ -4136,7 +4142,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" s="19">
         <v>0.95000000000000007</v>
@@ -4144,7 +4150,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B11" s="21">
         <v>0.95138888888888884</v>
@@ -4152,7 +4158,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="19">
         <v>0.95347222222222217</v>
@@ -4160,7 +4166,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="21">
         <v>0.95486111111111116</v>
@@ -4168,7 +4174,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="19">
         <v>0.95694444444444438</v>
@@ -4176,7 +4182,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="21">
         <v>0.9590277777777777</v>
@@ -4184,7 +4190,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="19">
         <v>0.9604166666666667</v>
@@ -4192,7 +4198,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="21">
         <v>0.96250000000000002</v>
@@ -4200,7 +4206,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="19">
         <v>0.96388888888888891</v>
@@ -4208,7 +4214,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="21">
         <v>0.96527777777777779</v>
@@ -4216,7 +4222,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B20" s="19">
         <v>0.96736111111111101</v>
@@ -4224,7 +4230,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="21">
         <v>0.96875</v>
@@ -4232,7 +4238,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="19">
         <v>0.97083333333333333</v>
@@ -4240,7 +4246,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="21">
         <v>0.97222222222222221</v>
@@ -4248,7 +4254,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="19">
         <v>0.97430555555555554</v>
@@ -4256,7 +4262,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="21">
         <v>0.97569444444444453</v>
@@ -4264,7 +4270,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="19">
         <v>0.9770833333333333</v>
@@ -4272,7 +4278,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="21">
         <v>0.97916666666666663</v>
@@ -4280,7 +4286,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="19">
         <v>0.98055555555555562</v>
@@ -4288,7 +4294,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="21">
         <v>0.9819444444444444</v>
@@ -4296,7 +4302,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="19">
         <v>0.98402777777777783</v>
@@ -4321,15 +4327,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2">
         <v>0.9375</v>
@@ -4345,7 +4351,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2">
         <v>0.94027777777777777</v>
@@ -4353,7 +4359,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3">
         <v>0.94166666666666676</v>
@@ -4361,7 +4367,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2">
         <v>0.94236111111111109</v>
@@ -4369,7 +4375,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7" s="3">
         <v>0.94374999999999998</v>
@@ -4377,7 +4383,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2">
         <v>0.9458333333333333</v>
@@ -4385,7 +4391,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="3">
         <v>0.9472222222222223</v>
@@ -4393,7 +4399,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="2">
         <v>0.94930555555555562</v>
@@ -4401,7 +4407,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="3">
         <v>0.9506944444444444</v>
@@ -4409,7 +4415,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B12" s="2">
         <v>0.95208333333333339</v>
@@ -4425,7 +4431,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="2">
         <v>0.9555555555555556</v>
@@ -4433,7 +4439,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="3">
         <v>0.95694444444444438</v>
@@ -4441,7 +4447,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2">
         <v>0.95833333333333337</v>
@@ -4449,7 +4455,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3">
         <v>0.95972222222222225</v>
@@ -4457,7 +4463,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="2">
         <v>0.96111111111111114</v>
@@ -4465,7 +4471,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3">
         <v>0.96319444444444446</v>
@@ -4481,7 +4487,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="3">
         <v>0.96736111111111101</v>
@@ -4489,7 +4495,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="2">
         <v>0.96875</v>
@@ -4497,7 +4503,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3">
         <v>0.97083333333333333</v>
@@ -4505,7 +4511,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="2">
         <v>0.97222222222222221</v>
@@ -4521,7 +4527,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="2">
         <v>0.97499999999999998</v>
@@ -4529,7 +4535,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3">
         <v>0.9770833333333333</v>
@@ -4554,10 +4560,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4570,7 +4576,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="3">
         <v>0.93888888888888899</v>
@@ -4578,7 +4584,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B4" s="2">
         <v>0.94027777777777777</v>
@@ -4586,7 +4592,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="3">
         <v>0.94305555555555554</v>
@@ -4594,7 +4600,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2">
         <v>0.94513888888888886</v>
@@ -4602,7 +4608,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3">
         <v>0.9472222222222223</v>
@@ -4610,7 +4616,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2">
         <v>0.94861111111111107</v>
@@ -4618,7 +4624,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="3">
         <v>0.9506944444444444</v>
@@ -4626,7 +4632,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2">
         <v>0.95208333333333339</v>
@@ -4634,7 +4640,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3">
         <v>0.95416666666666661</v>
@@ -4642,7 +4648,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="19">
         <v>0.9555555555555556</v>
@@ -4666,15 +4672,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -4682,7 +4688,7 @@
     </row>
     <row r="3" spans="1:2" ht="22.5">
       <c r="A3" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -4690,7 +4696,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="19">
         <v>0.94097222222222221</v>
@@ -4698,7 +4704,7 @@
     </row>
     <row r="5" spans="1:2" ht="22.5">
       <c r="A5" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="21">
         <v>0.94305555555555554</v>
@@ -4706,7 +4712,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="19">
         <v>0.94513888888888886</v>
@@ -4714,7 +4720,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="21">
         <v>0.94652777777777775</v>
@@ -4722,7 +4728,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="19">
         <v>0.94791666666666663</v>
@@ -4730,7 +4736,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="21">
         <v>0.94930555555555562</v>
@@ -4738,7 +4744,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="19">
         <v>0.9506944444444444</v>
@@ -4746,7 +4752,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="21">
         <v>0.95277777777777783</v>
@@ -4754,7 +4760,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="19">
         <v>0.95416666666666661</v>
@@ -4762,7 +4768,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="21">
         <v>0.9555555555555556</v>
@@ -4770,7 +4776,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="19">
         <v>0.95763888888888893</v>
@@ -4778,7 +4784,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" s="21">
         <v>0.9590277777777777</v>
@@ -4786,7 +4792,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="19">
         <v>0.9604166666666667</v>
@@ -4794,7 +4800,7 @@
     </row>
     <row r="17" spans="1:2" ht="22.5">
       <c r="A17" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="21">
         <v>0.96250000000000002</v>
@@ -4810,7 +4816,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B19" s="21">
         <v>0.96597222222222223</v>
@@ -4818,7 +4824,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="19">
         <v>0.96736111111111101</v>
@@ -4826,7 +4832,7 @@
     </row>
     <row r="21" spans="1:2" ht="22.5">
       <c r="A21" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="21">
         <v>0.96944444444444444</v>
@@ -4834,7 +4840,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="19">
         <v>0.97083333333333333</v>
@@ -4842,7 +4848,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="21">
         <v>0.97291666666666676</v>
@@ -4850,7 +4856,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B24" s="19">
         <v>0.97430555555555554</v>
@@ -4858,7 +4864,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="21">
         <v>0.97638888888888886</v>
@@ -4866,7 +4872,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="19">
         <v>0.97777777777777775</v>
@@ -4874,7 +4880,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="21">
         <v>0.97916666666666663</v>
@@ -4882,7 +4888,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B28" s="19">
         <v>0.98055555555555562</v>
@@ -4890,7 +4896,7 @@
     </row>
     <row r="29" spans="1:2" ht="22.5">
       <c r="A29" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B29" s="21">
         <v>0.9819444444444444</v>
@@ -4914,15 +4920,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -4938,7 +4944,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2">
         <v>0.94097222222222221</v>
@@ -4946,7 +4952,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3">
         <v>0.94305555555555554</v>
@@ -4954,7 +4960,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2">
         <v>0.94444444444444453</v>
@@ -4962,7 +4968,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" s="3">
         <v>0.94652777777777775</v>
@@ -4970,7 +4976,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="2">
         <v>0.94791666666666663</v>
@@ -4978,7 +4984,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3">
         <v>0.94930555555555562</v>
@@ -4986,7 +4992,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="2">
         <v>0.9506944444444444</v>
@@ -4994,7 +5000,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3">
         <v>0.95208333333333339</v>
@@ -5002,7 +5008,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B12" s="2">
         <v>0.95416666666666661</v>
@@ -5010,7 +5016,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="3">
         <v>0.9555555555555556</v>
@@ -5018,7 +5024,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2">
         <v>0.95694444444444438</v>
@@ -5042,7 +5048,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="3">
         <v>0.96250000000000002</v>
@@ -5050,7 +5056,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2">
         <v>0.96388888888888891</v>
@@ -5058,7 +5064,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3">
         <v>0.96527777777777779</v>
@@ -5066,7 +5072,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2">
         <v>0.96736111111111101</v>
@@ -5074,7 +5080,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" s="3">
         <v>0.96875</v>
@@ -5082,7 +5088,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" s="2">
         <v>0.97013888888888899</v>
@@ -5090,7 +5096,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" s="3">
         <v>0.97152777777777777</v>
@@ -5098,7 +5104,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" s="2">
         <v>0.97291666666666676</v>
@@ -5106,7 +5112,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" s="3">
         <v>0.97499999999999998</v>
@@ -5114,7 +5120,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2">
         <v>0.97638888888888886</v>
@@ -5122,7 +5128,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" s="3">
         <v>0.97777777777777775</v>
@@ -5130,7 +5136,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" s="2">
         <v>0.97986111111111107</v>
@@ -5138,7 +5144,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="3">
         <v>0.9819444444444444</v>
@@ -5146,7 +5152,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" s="2">
         <v>0.98402777777777783</v>
@@ -5154,7 +5160,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" s="3">
         <v>0.98611111111111116</v>
@@ -5162,7 +5168,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2">
         <v>0.98749999999999993</v>
@@ -5170,7 +5176,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" s="3">
         <v>0.9902777777777777</v>
@@ -5178,7 +5184,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" s="2">
         <v>0.9916666666666667</v>
@@ -5202,15 +5208,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -5218,7 +5224,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -5226,7 +5232,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="19">
         <v>0.94027777777777777</v>
@@ -5234,7 +5240,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="21">
         <v>0.94166666666666676</v>
@@ -5242,7 +5248,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="19">
         <v>0.94444444444444453</v>
@@ -5250,7 +5256,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" s="21">
         <v>0.94652777777777775</v>
@@ -5258,7 +5264,7 @@
     </row>
     <row r="8" spans="1:2" ht="22.5">
       <c r="A8" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="19">
         <v>0.94930555555555562</v>
@@ -5266,7 +5272,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="21">
         <v>0.9506944444444444</v>
@@ -5274,7 +5280,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="19">
         <v>0.95208333333333339</v>
@@ -5282,7 +5288,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" s="21">
         <v>0.95347222222222217</v>
@@ -5290,7 +5296,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="19">
         <v>0.95486111111111116</v>
@@ -5298,7 +5304,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="21">
         <v>0.95694444444444438</v>
@@ -5306,7 +5312,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" s="19">
         <v>0.95833333333333337</v>
@@ -5314,7 +5320,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" s="21">
         <v>0.95972222222222225</v>
@@ -5322,7 +5328,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B16" s="19">
         <v>0.96111111111111114</v>
@@ -5338,7 +5344,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="19">
         <v>0.96388888888888891</v>
@@ -5346,7 +5352,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B19" s="21">
         <v>0.96527777777777779</v>
@@ -5354,7 +5360,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B20" s="19">
         <v>0.96736111111111101</v>
@@ -5362,7 +5368,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="21">
         <v>0.96875</v>
@@ -5370,7 +5376,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B22" s="19">
         <v>0.97083333333333333</v>
@@ -5378,7 +5384,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B23" s="21">
         <v>0.97222222222222221</v>
@@ -5386,7 +5392,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B24" s="19">
         <v>0.97361111111111109</v>
@@ -5394,7 +5400,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="21">
         <v>0.97499999999999998</v>
@@ -5402,7 +5408,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B26" s="19">
         <v>0.97638888888888886</v>
@@ -5410,7 +5416,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="21">
         <v>0.97777777777777775</v>
@@ -5418,7 +5424,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B28" s="19">
         <v>0.97916666666666663</v>
@@ -5426,7 +5432,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B29" s="21">
         <v>0.98055555555555562</v>
@@ -5434,7 +5440,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30" s="19">
         <v>0.9819444444444444</v>
@@ -5442,7 +5448,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B31" s="21">
         <v>0.98333333333333339</v>
@@ -5469,15 +5475,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B2" s="19">
         <v>0.9375</v>
@@ -5485,7 +5491,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B3" s="21">
         <v>0.93888888888888899</v>
@@ -5493,7 +5499,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B4" s="19">
         <v>0.94097222222222221</v>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="21">
         <v>0.94305555555555554</v>
@@ -5509,7 +5515,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" s="19">
         <v>0.94444444444444453</v>
@@ -5517,7 +5523,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" s="21">
         <v>0.94652777777777775</v>
@@ -5525,7 +5531,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="19">
         <v>0.94861111111111107</v>
@@ -5533,7 +5539,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B9" s="21">
         <v>0.9506944444444444</v>
@@ -5541,7 +5547,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B10" s="19">
         <v>0.95347222222222217</v>
@@ -5549,7 +5555,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B11" s="21">
         <v>0.95486111111111116</v>
@@ -5565,7 +5571,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="21">
         <v>0.9590277777777777</v>
@@ -5573,7 +5579,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="19">
         <v>0.96180555555555547</v>
@@ -5581,7 +5587,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B15" s="21">
         <v>0.96388888888888891</v>
@@ -5589,7 +5595,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="19">
         <v>0.96527777777777779</v>
@@ -5597,7 +5603,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="21">
         <v>0.96666666666666667</v>
@@ -5605,7 +5611,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B18" s="19">
         <v>0.96805555555555556</v>
@@ -5613,7 +5619,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="21">
         <v>0.96944444444444444</v>
@@ -5629,7 +5635,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="21">
         <v>0.97361111111111109</v>
@@ -5637,7 +5643,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="19">
         <v>0.97569444444444453</v>
@@ -5645,7 +5651,7 @@
     </row>
     <row r="23" spans="1:2" ht="22.5">
       <c r="A23" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B23" s="21">
         <v>0.97777777777777775</v>
@@ -5653,7 +5659,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B24" s="19">
         <v>0.97916666666666663</v>
@@ -5661,7 +5667,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B25" s="21">
         <v>0.98125000000000007</v>
@@ -5669,7 +5675,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B26" s="19">
         <v>0.98333333333333339</v>
@@ -5677,7 +5683,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B27" s="21">
         <v>0.98541666666666661</v>
@@ -5685,7 +5691,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B28" s="19">
         <v>0.98819444444444438</v>
@@ -5693,7 +5699,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="21">
         <v>0.99236111111111114</v>
@@ -5701,7 +5707,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B30" s="19">
         <v>0.99583333333333324</v>
@@ -5709,7 +5715,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="21">
         <v>0.99791666666666667</v>
@@ -5717,7 +5723,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B32" s="19">
         <v>6.9444444444444447E-4</v>
@@ -5725,7 +5731,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B33" s="21">
         <v>3.472222222222222E-3</v>
@@ -5733,7 +5739,7 @@
     </row>
     <row r="34" spans="1:2" ht="22.5">
       <c r="A34" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B34" s="19">
         <v>5.5555555555555558E-3</v>
@@ -5741,7 +5747,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" s="21">
         <v>7.6388888888888886E-3</v>
@@ -5749,7 +5755,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="19">
         <v>9.7222222222222224E-3</v>

--- a/Project2_Dijkstra/info/Timetable.xlsx
+++ b/Project2_Dijkstra/info/Timetable.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A873D0-674F-4E41-8C3D-376F43C50E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5634D08B-9AD3-480C-A4E7-29311B926FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11445" yWindow="1365" windowWidth="17160" windowHeight="12315" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Line 1" sheetId="1" r:id="rId1"/>
@@ -2509,7 +2509,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3659,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2FD463-8994-4E99-B1A2-EC39567131AC}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3748,8 +3748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
